--- a/ParametricGraph/bench10.xlsx
+++ b/ParametricGraph/bench10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -388,7 +388,7 @@
   <dimension ref="A1:S1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ParametricGraph/bench10.xlsx
+++ b/ParametricGraph/bench10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>Bird function: This is a bi-modal function with f x ( ) 106.764537 *   − in the search
 domain x i i ∈ − = [ 2 , 2 ]; 1,2 π π given as</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:S1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,7 +414,9 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -437,6 +442,9 @@
       <c r="B2">
         <f>1257*1257</f>
         <v>1580049</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>10</v>
